--- a/documents/04. 화면설계서.xlsx
+++ b/documents/04. 화면설계서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/b/Desktop/dev_board_maker/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/b/Desktop/dev_board_maker/board_maker/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E28453-D416-1941-8020-2BBBDC5C014C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C16E4C9-56D1-9542-B66C-9171515904EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{470392F1-D5D3-3D4A-B3AA-43833CDDE0E2}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{470392F1-D5D3-3D4A-B3AA-43833CDDE0E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notice" sheetId="15" r:id="rId1"/>
@@ -4449,10 +4449,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>가입 실패</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>가입입하셨습니다. 앞으로의 활동을 기대합니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4477,32 +4473,6 @@
   </si>
   <si>
     <t>설정번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">     재설정 가능한 번호를 등록된 이메일에 발송합니다.
-     해당 번호는, 발송 후 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Apple SD Gothic Neo Regular"/>
-        <charset val="129"/>
-      </rPr>
-      <t>5분</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Apple SD Gothic Neo Regular"/>
-        <charset val="129"/>
-      </rPr>
-      <t>간 유효합니다.</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4639,32 +4609,6 @@
     <t>해당 영역은, 화면 가운데에 고정한다.
 해당 영역은, 가입 창에서 탭을 선택하여 들어올 수도 있으나,
 일반적으로 재설정 메일 링크로 들어오는 게 일반적이다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">기본적으로 비활성화 상태, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Apple SD Gothic Neo Regular"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이메일주소(1)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Apple SD Gothic Neo Regular"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가 입력되야 활성화된다. 
-발송시, 해당 이메일로, 아이디, 설정번호, 비밀번호설정탭 링크가 발송된다.</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4909,14 +4853,6 @@
   </si>
   <si>
     <t>alert4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 이메일로는 이미 설정번호가 발송되었습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>중복 발송</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5215,12 +5151,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>회원가입을 할 수 있는 페이지이다. 로그인 창에서 접속할 수 있다.
-하나의 페이지이나, 탭을 이용하여 비밀번호 찾기 기능도 이용할 수 있다.
-중복 검사를 가입할 때 실시함으로서, DB 검색 부하 및 의도적인 공격을 방지한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>페이지 상단에 위치하여, 버튼당 다른 화면(</t>
     </r>
@@ -7207,72 +7137,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>아이디와, 비밀번호를 변경할 수 있는 설정번호를 발송한다.
-해당 설정번호는 5분간 유효하며, 발송 버튼의 이름은 5분 -&gt; 0분 타이머가 된다.
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Apple SD Gothic Neo Regular"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이메일 주소만으로 비밀번호를 재설정시키는 테러 방지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Apple SD Gothic Neo Regular"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">)
-발송된 설정번호 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Apple SD Gothic Neo Regular"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유효기간(5)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Apple SD Gothic Neo Regular"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">이 유효한 상황에서, 새 창으로 들어와 동일한 이메일을 넣을 경우, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF0432FF"/>
-        <rFont val="Apple SD Gothic Neo Regular"/>
-        <charset val="129"/>
-      </rPr>
-      <t>alert(4)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Apple SD Gothic Neo Regular"/>
-        <charset val="129"/>
-      </rPr>
-      <t>를 띄우고 발송하지 않는다.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>100글자 이내로 카테고리 설명을 입력한다. 수정시, 기존 설명이 들어있다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -7492,6 +7356,80 @@
   </si>
   <si>
     <t>SIGN_UP_SCORE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     재설정 가능한 번호를 등록된 이메일에 발송합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">기본적으로 비활성화 상태, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Apple SD Gothic Neo Regular"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이메일주소(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Apple SD Gothic Neo Regular"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">가 입력되야 활성화된다. </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">비밀번호를 변경할 수 있는 설정번호를 발송한다.
+하루에 5번 재설정 가능하다(횟수는 자정 초기화).
+성공적으로 발송 후, 해당 창에서는 발송 버튼이 disable된다.
+횟수를 모두 소진했다는 응답이 올 경우, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0432FF"/>
+        <rFont val="Apple SD Gothic Neo Regular"/>
+        <charset val="129"/>
+      </rPr>
+      <t>alert(4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Apple SD Gothic Neo Regular"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">에 표시한다. </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>횟수 제한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 이메일의 재설정 횟수(5회)가 모두 소진되었습니다. 내일 시도해주세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입 성공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입을 할 수 있는 페이지이다. 로그인 창에서 접속할 수 있다.
+하나의 페이지이나, 탭을 이용하여 비밀번호 찾기, 재설정 기능도 이용할 수 있다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10109,6 +10047,27 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10121,28 +10080,7 @@
     <xf numFmtId="0" fontId="46" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="33" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -31849,7 +31787,7 @@
     <row r="30" spans="1:14" ht="19" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="62" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C30" s="211"/>
       <c r="D30" s="211"/>
@@ -31890,7 +31828,7 @@
         <v>229</v>
       </c>
       <c r="C32" s="210" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="D32" s="210"/>
       <c r="E32" s="210"/>
@@ -31947,10 +31885,10 @@
     <row r="35" spans="1:14">
       <c r="A35" s="6"/>
       <c r="B35" s="63" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="C35" s="210" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="D35" s="210"/>
       <c r="E35" s="210"/>
@@ -31983,10 +31921,10 @@
     <row r="37" spans="1:14">
       <c r="A37" s="6"/>
       <c r="B37" s="62" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C37" s="211" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="D37" s="211"/>
       <c r="E37" s="211"/>
@@ -32006,7 +31944,7 @@
         <v>223</v>
       </c>
       <c r="C38" s="219" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="D38" s="219"/>
       <c r="E38" s="219"/>
@@ -32023,10 +31961,10 @@
     <row r="39" spans="1:14">
       <c r="A39" s="6"/>
       <c r="B39" s="204" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C39" s="218" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="D39" s="218"/>
       <c r="E39" s="218"/>
@@ -32043,10 +31981,10 @@
     <row r="40" spans="1:14">
       <c r="A40" s="6"/>
       <c r="B40" s="204" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="C40" s="218" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="D40" s="218"/>
       <c r="E40" s="218"/>
@@ -32106,7 +32044,7 @@
         <v>228</v>
       </c>
       <c r="C43" s="218" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="D43" s="218"/>
       <c r="E43" s="218"/>
@@ -32123,10 +32061,10 @@
     <row r="44" spans="1:14">
       <c r="A44" s="6"/>
       <c r="B44" s="63" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="C44" s="210" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="D44" s="210"/>
       <c r="E44" s="210"/>
@@ -32143,10 +32081,10 @@
     <row r="45" spans="1:14">
       <c r="A45" s="6"/>
       <c r="B45" s="63" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="C45" s="210" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="D45" s="210"/>
       <c r="E45" s="210"/>
@@ -32192,9 +32130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C6E5C6-8AE1-C34B-BA42-98A94444ECC3}">
   <dimension ref="A1:BA66"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AI13" sqref="AI13"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
@@ -32240,7 +32176,7 @@
       <c r="AG2" s="22"/>
       <c r="AH2" s="22"/>
       <c r="AI2" s="351" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="AJ2" s="352"/>
       <c r="AK2" s="352"/>
@@ -32273,7 +32209,7 @@
       <c r="H3" s="433"/>
       <c r="I3" s="433"/>
       <c r="J3" s="435" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="K3" s="435"/>
       <c r="L3" s="435"/>
@@ -32303,7 +32239,7 @@
       <c r="AG3" s="354"/>
       <c r="AH3" s="354"/>
       <c r="AI3" s="351" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="AJ3" s="352"/>
       <c r="AK3" s="352"/>
@@ -32360,7 +32296,7 @@
       <c r="AG4" s="356"/>
       <c r="AH4" s="357"/>
       <c r="AI4" s="364" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="AJ4" s="365"/>
       <c r="AK4" s="365"/>
@@ -32569,7 +32505,7 @@
       <c r="W8" s="130"/>
       <c r="X8" s="131"/>
       <c r="Y8" s="458" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="Z8" s="459"/>
       <c r="AA8" s="459"/>
@@ -32610,7 +32546,7 @@
       <c r="W9" s="130"/>
       <c r="X9" s="131"/>
       <c r="Y9" s="458" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="Z9" s="459"/>
       <c r="AA9" s="459"/>
@@ -32651,7 +32587,7 @@
       <c r="W10" s="130"/>
       <c r="X10" s="131"/>
       <c r="Y10" s="458" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="Z10" s="459"/>
       <c r="AA10" s="459"/>
@@ -32719,7 +32655,7 @@
       <c r="Q12" s="447"/>
       <c r="R12" s="447"/>
       <c r="S12" s="179" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="T12" s="179" t="s">
         <v>44</v>
@@ -32820,7 +32756,7 @@
       <c r="L15" s="170"/>
       <c r="M15" s="170"/>
       <c r="N15" s="443" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="O15" s="443"/>
       <c r="P15" s="443"/>
@@ -32855,7 +32791,7 @@
       <c r="L16" s="170"/>
       <c r="M16" s="170"/>
       <c r="N16" s="443" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="O16" s="443"/>
       <c r="P16" s="443"/>
@@ -32889,7 +32825,7 @@
       <c r="L17" s="170"/>
       <c r="M17" s="170"/>
       <c r="N17" s="443" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="O17" s="443"/>
       <c r="P17" s="443"/>
@@ -32989,7 +32925,7 @@
       <c r="L20" s="170"/>
       <c r="M20" s="170"/>
       <c r="N20" s="444" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="O20" s="445"/>
       <c r="P20" s="445"/>
@@ -33024,7 +32960,7 @@
       <c r="L21" s="170"/>
       <c r="M21" s="170"/>
       <c r="N21" s="444" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="O21" s="445"/>
       <c r="P21" s="445"/>
@@ -33059,7 +32995,7 @@
       <c r="L22" s="170"/>
       <c r="M22" s="170"/>
       <c r="N22" s="444" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="O22" s="445"/>
       <c r="P22" s="445"/>
@@ -33294,7 +33230,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="418" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="G33" s="418"/>
       <c r="H33" s="418"/>
@@ -33327,7 +33263,7 @@
       <c r="O34" s="132"/>
       <c r="Q34" s="141"/>
       <c r="R34" s="448" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="S34" s="448"/>
       <c r="T34" s="448"/>
@@ -33336,7 +33272,7 @@
       <c r="W34" s="448"/>
       <c r="X34" s="448"/>
       <c r="Z34" s="412" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="AA34" s="413"/>
       <c r="AB34" s="414"/>
@@ -33352,7 +33288,7 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="411" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G35" s="411"/>
       <c r="H35" s="411"/>
@@ -33386,7 +33322,7 @@
       <c r="N36" s="137"/>
       <c r="O36" s="132"/>
       <c r="Q36" s="415" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="R36" s="416"/>
       <c r="S36" s="416"/>
@@ -33411,7 +33347,7 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="411" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="G37" s="411"/>
       <c r="H37" s="411"/>
@@ -33470,7 +33406,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="J39" s="412" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="K39" s="413"/>
       <c r="L39" s="414"/>
@@ -33784,10 +33720,10 @@
         <v>557</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F2" s="27"/>
       <c r="G2" s="27" t="str">
@@ -33810,10 +33746,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>559</v>
@@ -33839,10 +33775,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>560</v>
@@ -33868,13 +33804,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="28" t="str">
@@ -33897,13 +33833,13 @@
       </c>
       <c r="B6" s="55"/>
       <c r="C6" s="27" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="F6" s="40" t="s">
         <v>562</v>
@@ -33922,10 +33858,10 @@
         <v>164</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="28" t="str">
@@ -33945,10 +33881,10 @@
         <v>556</v>
       </c>
       <c r="E8" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="F8" s="108" t="s">
         <v>695</v>
-      </c>
-      <c r="F8" s="108" t="s">
-        <v>701</v>
       </c>
       <c r="G8" s="461" t="str">
         <f>_xlfn.CONCAT(G6,D8)</f>
@@ -33959,16 +33895,16 @@
       <c r="A9" s="439"/>
       <c r="B9" s="469"/>
       <c r="C9" s="27" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="F9" s="108" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G9" s="461"/>
     </row>
@@ -33978,13 +33914,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="F10" s="108"/>
       <c r="G10" s="28" t="str">
@@ -33996,16 +33932,16 @@
       <c r="A11" s="439"/>
       <c r="B11" s="399"/>
       <c r="C11" s="27" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="F11" s="108" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="G11" s="400" t="str">
         <f>_xlfn.CONCAT(G6,D11)</f>
@@ -34016,16 +33952,16 @@
       <c r="A12" s="439"/>
       <c r="B12" s="469"/>
       <c r="C12" s="27" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="F12" s="108" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="G12" s="402"/>
     </row>
@@ -34041,10 +33977,10 @@
         <v>333</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="F13" s="108" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="G13" s="28" t="str">
         <f>_xlfn.CONCAT(G6,D13)</f>
@@ -34057,16 +33993,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="F14" s="108" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="G14" s="28" t="str">
         <f>_xlfn.CONCAT(G6,D14)</f>
@@ -34079,13 +34015,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="F15" s="108"/>
       <c r="G15" s="28" t="str">
@@ -34099,16 +34035,16 @@
         <v>7</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="F16" s="405" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="G16" s="28" t="str">
         <f>_xlfn.CONCAT(G6,D16)</f>
@@ -34121,13 +34057,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="F17" s="406"/>
       <c r="G17" s="28" t="str">
@@ -34141,13 +34077,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="F18" s="407"/>
       <c r="G18" s="28" t="str">
@@ -34161,13 +34097,13 @@
         <v>10</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F19" s="108"/>
       <c r="G19" s="28" t="str">
@@ -34181,13 +34117,13 @@
         <v>11</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="E20" s="176" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="F20" s="465"/>
       <c r="G20" s="468" t="str">
@@ -34199,13 +34135,13 @@
       <c r="A21" s="439"/>
       <c r="B21" s="463"/>
       <c r="C21" s="177" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="D21" s="177" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="E21" s="178" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="F21" s="466"/>
       <c r="G21" s="468"/>
@@ -34214,13 +34150,13 @@
       <c r="A22" s="439"/>
       <c r="B22" s="463"/>
       <c r="C22" s="177" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="D22" s="177" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="E22" s="178" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="F22" s="466"/>
       <c r="G22" s="468"/>
@@ -34229,13 +34165,13 @@
       <c r="A23" s="439"/>
       <c r="B23" s="464"/>
       <c r="C23" s="177" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="D23" s="177" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="E23" s="178" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="F23" s="467"/>
       <c r="G23" s="468"/>
@@ -34246,13 +34182,13 @@
       </c>
       <c r="B24" s="154"/>
       <c r="C24" s="28" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" s="27" t="str">
@@ -34266,13 +34202,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="28" t="str">
@@ -34286,16 +34222,16 @@
         <v>2</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="F26" s="108" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G26" s="28" t="str">
         <f>_xlfn.CONCAT(G24,D26)</f>
@@ -34308,16 +34244,16 @@
         <v>3</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="F27" s="108" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G27" s="28" t="str">
         <f>_xlfn.CONCAT(G24,D27)</f>
@@ -34330,16 +34266,16 @@
         <v>4</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="F28" s="108" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="G28" s="28" t="str">
         <f>_xlfn.CONCAT(G24,D28)</f>
@@ -34352,13 +34288,13 @@
       </c>
       <c r="B29" s="157"/>
       <c r="C29" s="28" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="28" t="str">
@@ -34372,13 +34308,13 @@
         <v>1</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F30" s="108"/>
       <c r="G30" s="28" t="str">
@@ -34392,16 +34328,16 @@
         <v>2</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="G31" s="28" t="str">
         <f>_xlfn.CONCAT(G29,D31)</f>
@@ -34599,7 +34535,7 @@
     <row r="5" spans="1:53" ht="25" customHeight="1">
       <c r="B5" s="14"/>
       <c r="C5" s="496" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="D5" s="482" t="s">
         <v>7</v>
@@ -34630,7 +34566,7 @@
       <c r="Z5" s="484"/>
       <c r="AA5" s="484"/>
       <c r="AB5" s="481" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="AC5" s="481"/>
       <c r="AD5" s="13"/>
@@ -34745,7 +34681,7 @@
       <c r="Z7" s="484"/>
       <c r="AA7" s="484"/>
       <c r="AB7" s="481" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="AC7" s="481"/>
       <c r="AD7" s="13"/>
@@ -34846,7 +34782,7 @@
       <c r="Z9" s="498"/>
       <c r="AA9" s="498"/>
       <c r="AB9" s="480" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="AC9" s="480"/>
       <c r="AD9" s="13"/>
@@ -34857,7 +34793,7 @@
       <c r="AG9" s="356"/>
       <c r="AH9" s="357"/>
       <c r="AI9" s="471" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="AJ9" s="472"/>
       <c r="AK9" s="472"/>
@@ -34966,7 +34902,7 @@
       <c r="Z11" s="484"/>
       <c r="AA11" s="484"/>
       <c r="AB11" s="485" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="AC11" s="486"/>
       <c r="AD11" s="13"/>
@@ -35082,7 +35018,7 @@
       <c r="Z13" s="484"/>
       <c r="AA13" s="484"/>
       <c r="AB13" s="480" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="AC13" s="481"/>
       <c r="AD13" s="13"/>
@@ -35198,7 +35134,7 @@
       <c r="Z15" s="484"/>
       <c r="AA15" s="484"/>
       <c r="AB15" s="480" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="AC15" s="481"/>
       <c r="AD15" s="13"/>
@@ -35314,7 +35250,7 @@
       <c r="Z17" s="489"/>
       <c r="AA17" s="489"/>
       <c r="AB17" s="485" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="AC17" s="486"/>
       <c r="AD17" s="13"/>
@@ -35430,7 +35366,7 @@
       <c r="Z19" s="490"/>
       <c r="AA19" s="490"/>
       <c r="AB19" s="480" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="AC19" s="481"/>
       <c r="AD19" s="13"/>
@@ -35546,7 +35482,7 @@
       <c r="Z21" s="484"/>
       <c r="AA21" s="484"/>
       <c r="AB21" s="480" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="AC21" s="481"/>
       <c r="AD21" s="13"/>
@@ -35630,7 +35566,7 @@
       <c r="Z23" s="484"/>
       <c r="AA23" s="484"/>
       <c r="AB23" s="480" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="AC23" s="481"/>
       <c r="AD23" s="13"/>
@@ -35721,7 +35657,7 @@
     <row r="29" spans="1:53" ht="25" customHeight="1">
       <c r="E29" s="8"/>
       <c r="F29" s="191" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
     </row>
     <row r="30" spans="1:53" ht="25" customHeight="1">
@@ -35759,7 +35695,7 @@
     <row r="31" spans="1:53" ht="25" customHeight="1">
       <c r="F31" s="14"/>
       <c r="G31" s="494" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="H31" s="495"/>
       <c r="I31" s="495"/>
@@ -35780,7 +35716,7 @@
     <row r="32" spans="1:53" ht="25" customHeight="1">
       <c r="F32" s="14"/>
       <c r="G32" s="487" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="H32" s="279"/>
       <c r="I32" s="279"/>
@@ -35803,10 +35739,10 @@
     <row r="33" spans="6:35" ht="25" customHeight="1">
       <c r="F33" s="14"/>
       <c r="G33" s="500" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="H33" s="482" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="I33" s="482"/>
       <c r="J33" s="482"/>
@@ -35834,7 +35770,7 @@
       <c r="AD33" s="484"/>
       <c r="AE33" s="484"/>
       <c r="AF33" s="499" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="AG33" s="481"/>
       <c r="AH33" s="13"/>
@@ -35878,7 +35814,7 @@
         <v>436</v>
       </c>
       <c r="H35" s="482" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="I35" s="482"/>
       <c r="J35" s="482"/>
@@ -35906,7 +35842,7 @@
       <c r="AD35" s="484"/>
       <c r="AE35" s="484"/>
       <c r="AF35" s="499" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="AG35" s="481"/>
       <c r="AH35" s="13"/>
@@ -36155,9 +36091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9F39F4-A6E7-3645-84A9-5CDA8E434456}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
@@ -36208,10 +36142,10 @@
         <v>175</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F2" s="28" t="str">
         <f>_xlfn.CONCAT(mainpage!AI3,C2)</f>
@@ -36295,7 +36229,7 @@
         <v>122</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>36</v>
@@ -36321,7 +36255,7 @@
         <v>34</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>127</v>
@@ -36352,7 +36286,7 @@
         <v>178</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="F7" s="401"/>
       <c r="G7" s="20"/>
@@ -36370,7 +36304,7 @@
         <v>185</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>420</v>
@@ -36402,7 +36336,7 @@
         <v>425</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="F9" s="28" t="str">
         <f>_xlfn.CONCAT(mainpage!AI3,C9)</f>
@@ -36428,10 +36362,10 @@
         <v>179</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F10" s="28" t="str">
         <f>_xlfn.CONCAT(mainpage!AI3,C10)</f>
@@ -36663,7 +36597,7 @@
     <row r="3" spans="2:53" ht="25" customHeight="1">
       <c r="B3" s="14"/>
       <c r="C3" s="494" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D3" s="495"/>
       <c r="E3" s="495"/>
@@ -37814,10 +37748,10 @@
         <v>175</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="F2" s="28" t="str">
         <f>_xlfn.CONCAT(postformpage!AI3,C2)</f>
@@ -37847,7 +37781,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="F3" s="28" t="str">
         <f>_xlfn.CONCAT(postformpage!AI3,C3)</f>
@@ -38023,7 +37957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F8B901-1A6D-864E-B9D1-8F459BF64862}">
   <dimension ref="A1:BA103"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
@@ -38305,7 +38239,7 @@
     <row r="7" spans="2:53" ht="25" customHeight="1">
       <c r="B7" s="14"/>
       <c r="C7" s="507" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="D7" s="508"/>
       <c r="E7" s="508"/>
@@ -41119,7 +41053,7 @@
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
     </row>
-    <row r="5" spans="1:16" ht="69">
+    <row r="5" spans="1:16" ht="46">
       <c r="A5" s="440"/>
       <c r="B5" s="469"/>
       <c r="C5" s="38" t="s">
@@ -41132,7 +41066,7 @@
         <v>420</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="G5" s="402"/>
       <c r="H5" s="20"/>
@@ -41297,10 +41231,10 @@
         <v>142</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="G11" s="27" t="str">
         <f>_xlfn.CONCAT(G2, D11)</f>
@@ -41362,7 +41296,7 @@
         <v>360</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="G13" s="50" t="str">
         <f>_xlfn.CONCAT(G2, D13)</f>
@@ -41393,7 +41327,7 @@
         <v>247</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G14" s="50" t="str">
         <f>_xlfn.CONCAT(G2, D14)</f>
@@ -41421,10 +41355,10 @@
         <v>146</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="G15" s="50" t="str">
         <f>_xlfn.CONCAT(G2, D15)</f>
@@ -41455,7 +41389,7 @@
         <v>249</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G16" s="400" t="str">
         <f>_xlfn.CONCAT(G2, D16)</f>
@@ -41841,7 +41775,7 @@
         <v>278</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G33" s="106" t="str">
         <f>_xlfn.CONCAT(G22,D33)</f>
@@ -41885,7 +41819,7 @@
         <v>281</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="G35" s="400" t="str">
         <f>_xlfn.CONCAT(G22,D35)</f>
@@ -42010,7 +41944,7 @@
       <c r="AG2" s="22"/>
       <c r="AH2" s="22"/>
       <c r="AI2" s="351" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="AJ2" s="352"/>
       <c r="AK2" s="352"/>
@@ -42033,11 +41967,11 @@
     </row>
     <row r="3" spans="2:53" ht="25" customHeight="1">
       <c r="B3" s="14"/>
-      <c r="C3" s="567" t="s">
-        <v>758</v>
-      </c>
-      <c r="D3" s="567"/>
-      <c r="E3" s="567"/>
+      <c r="C3" s="563" t="s">
+        <v>752</v>
+      </c>
+      <c r="D3" s="563"/>
+      <c r="E3" s="563"/>
       <c r="F3" s="94"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
@@ -42069,7 +42003,7 @@
       <c r="AG3" s="354"/>
       <c r="AH3" s="354"/>
       <c r="AI3" s="351" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="AJ3" s="352"/>
       <c r="AK3" s="352"/>
@@ -42101,7 +42035,7 @@
       <c r="AG4" s="356"/>
       <c r="AH4" s="357"/>
       <c r="AI4" s="364" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="AJ4" s="365"/>
       <c r="AK4" s="365"/>
@@ -42125,7 +42059,7 @@
     <row r="5" spans="2:53" ht="25" customHeight="1">
       <c r="B5" s="14"/>
       <c r="C5" s="504" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="D5" s="503"/>
       <c r="E5" s="504" t="s">
@@ -42133,7 +42067,7 @@
       </c>
       <c r="F5" s="503"/>
       <c r="G5" s="504" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="H5" s="502"/>
       <c r="I5" s="502"/>
@@ -42143,26 +42077,26 @@
       </c>
       <c r="L5" s="502"/>
       <c r="M5" s="503"/>
-      <c r="N5" s="565" t="s">
-        <v>761</v>
-      </c>
-      <c r="O5" s="565"/>
-      <c r="P5" s="565" t="s">
+      <c r="N5" s="557" t="s">
+        <v>755</v>
+      </c>
+      <c r="O5" s="557"/>
+      <c r="P5" s="557" t="s">
+        <v>757</v>
+      </c>
+      <c r="Q5" s="557"/>
+      <c r="R5" s="557" t="s">
+        <v>745</v>
+      </c>
+      <c r="S5" s="557"/>
+      <c r="T5" s="504" t="s">
         <v>763</v>
-      </c>
-      <c r="Q5" s="565"/>
-      <c r="R5" s="565" t="s">
-        <v>751</v>
-      </c>
-      <c r="S5" s="565"/>
-      <c r="T5" s="504" t="s">
-        <v>769</v>
       </c>
       <c r="U5" s="502"/>
       <c r="V5" s="502"/>
       <c r="W5" s="503"/>
       <c r="X5" s="504" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="Y5" s="502"/>
       <c r="Z5" s="503"/>
@@ -42201,46 +42135,46 @@
       <c r="D6" s="503"/>
       <c r="E6" s="201"/>
       <c r="F6" s="182" t="s">
-        <v>762</v>
-      </c>
-      <c r="G6" s="557"/>
-      <c r="H6" s="558"/>
-      <c r="I6" s="559"/>
+        <v>756</v>
+      </c>
+      <c r="G6" s="564"/>
+      <c r="H6" s="565"/>
+      <c r="I6" s="566"/>
       <c r="J6" s="182" t="s">
-        <v>762</v>
-      </c>
-      <c r="K6" s="557"/>
-      <c r="L6" s="559"/>
+        <v>756</v>
+      </c>
+      <c r="K6" s="564"/>
+      <c r="L6" s="566"/>
       <c r="M6" s="182" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="N6" s="186"/>
       <c r="O6" s="182" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="P6" s="186"/>
       <c r="Q6" s="182" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="R6" s="186"/>
       <c r="S6" s="182" t="s">
-        <v>762</v>
-      </c>
-      <c r="T6" s="557"/>
-      <c r="U6" s="558"/>
-      <c r="V6" s="559"/>
+        <v>756</v>
+      </c>
+      <c r="T6" s="564"/>
+      <c r="U6" s="565"/>
+      <c r="V6" s="566"/>
       <c r="W6" s="182" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="X6" s="573"/>
       <c r="Y6" s="574"/>
       <c r="Z6" s="182" t="s">
-        <v>762</v>
-      </c>
-      <c r="AA6" s="568"/>
-      <c r="AB6" s="568"/>
+        <v>756</v>
+      </c>
+      <c r="AA6" s="558"/>
+      <c r="AB6" s="558"/>
       <c r="AC6" s="182" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="AD6" s="13"/>
       <c r="AE6" s="6"/>
@@ -42269,48 +42203,48 @@
     </row>
     <row r="7" spans="2:53" ht="25" customHeight="1">
       <c r="B7" s="14"/>
-      <c r="C7" s="560" t="s">
+      <c r="C7" s="567" t="s">
         <v>109</v>
       </c>
       <c r="D7" s="561"/>
-      <c r="E7" s="562" t="s">
+      <c r="E7" s="559" t="s">
+        <v>764</v>
+      </c>
+      <c r="F7" s="561"/>
+      <c r="G7" s="562" t="s">
+        <v>766</v>
+      </c>
+      <c r="H7" s="560"/>
+      <c r="I7" s="560"/>
+      <c r="J7" s="561"/>
+      <c r="K7" s="559" t="s">
+        <v>768</v>
+      </c>
+      <c r="L7" s="560"/>
+      <c r="M7" s="561"/>
+      <c r="N7" s="559">
+        <v>30</v>
+      </c>
+      <c r="O7" s="561"/>
+      <c r="P7" s="559">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="561"/>
+      <c r="R7" s="559">
+        <v>10</v>
+      </c>
+      <c r="S7" s="561"/>
+      <c r="T7" s="559"/>
+      <c r="U7" s="560"/>
+      <c r="V7" s="560"/>
+      <c r="W7" s="561"/>
+      <c r="X7" s="559"/>
+      <c r="Y7" s="560"/>
+      <c r="Z7" s="561"/>
+      <c r="AA7" s="559" t="s">
         <v>770</v>
       </c>
-      <c r="F7" s="561"/>
-      <c r="G7" s="563" t="s">
-        <v>772</v>
-      </c>
-      <c r="H7" s="564"/>
-      <c r="I7" s="564"/>
-      <c r="J7" s="561"/>
-      <c r="K7" s="562" t="s">
-        <v>774</v>
-      </c>
-      <c r="L7" s="564"/>
-      <c r="M7" s="561"/>
-      <c r="N7" s="562">
-        <v>30</v>
-      </c>
-      <c r="O7" s="561"/>
-      <c r="P7" s="562">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="561"/>
-      <c r="R7" s="562">
-        <v>10</v>
-      </c>
-      <c r="S7" s="561"/>
-      <c r="T7" s="562"/>
-      <c r="U7" s="564"/>
-      <c r="V7" s="564"/>
-      <c r="W7" s="561"/>
-      <c r="X7" s="562"/>
-      <c r="Y7" s="564"/>
-      <c r="Z7" s="561"/>
-      <c r="AA7" s="562" t="s">
-        <v>776</v>
-      </c>
-      <c r="AB7" s="564"/>
+      <c r="AB7" s="560"/>
       <c r="AC7" s="561"/>
       <c r="AD7" s="13"/>
       <c r="AE7" s="6"/>
@@ -42344,17 +42278,17 @@
       </c>
       <c r="D8" s="503"/>
       <c r="E8" s="504" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F8" s="503"/>
-      <c r="G8" s="566" t="s">
-        <v>773</v>
+      <c r="G8" s="568" t="s">
+        <v>767</v>
       </c>
       <c r="H8" s="502"/>
       <c r="I8" s="502"/>
       <c r="J8" s="503"/>
       <c r="K8" s="504" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="L8" s="502"/>
       <c r="M8" s="503"/>
@@ -42377,12 +42311,12 @@
       <c r="V8" s="502"/>
       <c r="W8" s="503"/>
       <c r="X8" s="504" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="Y8" s="502"/>
       <c r="Z8" s="503"/>
       <c r="AA8" s="504" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="AB8" s="502"/>
       <c r="AC8" s="503"/>
@@ -42398,56 +42332,56 @@
     </row>
     <row r="9" spans="2:53" ht="25" customHeight="1">
       <c r="B9" s="14"/>
-      <c r="C9" s="560"/>
+      <c r="C9" s="567"/>
       <c r="D9" s="561"/>
-      <c r="E9" s="562" t="s">
-        <v>777</v>
+      <c r="E9" s="559" t="s">
+        <v>771</v>
       </c>
       <c r="F9" s="561"/>
-      <c r="G9" s="563" t="s">
-        <v>778</v>
-      </c>
-      <c r="H9" s="564"/>
-      <c r="I9" s="564"/>
+      <c r="G9" s="562" t="s">
+        <v>772</v>
+      </c>
+      <c r="H9" s="560"/>
+      <c r="I9" s="560"/>
       <c r="J9" s="561"/>
-      <c r="K9" s="562" t="s">
-        <v>779</v>
-      </c>
-      <c r="L9" s="564"/>
+      <c r="K9" s="559" t="s">
+        <v>773</v>
+      </c>
+      <c r="L9" s="560"/>
       <c r="M9" s="561"/>
-      <c r="N9" s="562">
+      <c r="N9" s="559">
         <v>0</v>
       </c>
       <c r="O9" s="561"/>
-      <c r="P9" s="562">
+      <c r="P9" s="559">
         <v>0</v>
       </c>
       <c r="Q9" s="561"/>
-      <c r="R9" s="562">
+      <c r="R9" s="559">
         <v>10</v>
       </c>
       <c r="S9" s="561"/>
-      <c r="T9" s="562"/>
-      <c r="U9" s="564"/>
-      <c r="V9" s="564"/>
+      <c r="T9" s="559"/>
+      <c r="U9" s="560"/>
+      <c r="V9" s="560"/>
       <c r="W9" s="561"/>
-      <c r="X9" s="562"/>
-      <c r="Y9" s="564"/>
+      <c r="X9" s="559"/>
+      <c r="Y9" s="560"/>
       <c r="Z9" s="561"/>
-      <c r="AA9" s="562" t="s">
-        <v>776</v>
-      </c>
-      <c r="AB9" s="564"/>
+      <c r="AA9" s="559" t="s">
+        <v>770</v>
+      </c>
+      <c r="AB9" s="560"/>
       <c r="AC9" s="561"/>
       <c r="AD9" s="13"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="355" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="AG9" s="356"/>
       <c r="AH9" s="357"/>
       <c r="AI9" s="471" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="AJ9" s="472"/>
       <c r="AK9" s="472"/>
@@ -42475,17 +42409,17 @@
       </c>
       <c r="D10" s="503"/>
       <c r="E10" s="504" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="F10" s="503"/>
-      <c r="G10" s="566" t="s">
-        <v>781</v>
+      <c r="G10" s="568" t="s">
+        <v>775</v>
       </c>
       <c r="H10" s="502"/>
       <c r="I10" s="502"/>
       <c r="J10" s="503"/>
       <c r="K10" s="504" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="L10" s="502"/>
       <c r="M10" s="503"/>
@@ -42508,12 +42442,12 @@
       <c r="V10" s="502"/>
       <c r="W10" s="503"/>
       <c r="X10" s="504" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="Y10" s="502"/>
       <c r="Z10" s="503"/>
       <c r="AA10" s="504" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="AB10" s="502"/>
       <c r="AC10" s="503"/>
@@ -42544,32 +42478,32 @@
     </row>
     <row r="11" spans="2:53" ht="25" customHeight="1">
       <c r="B11" s="14"/>
-      <c r="C11" s="562"/>
+      <c r="C11" s="559"/>
       <c r="D11" s="561"/>
-      <c r="E11" s="562"/>
+      <c r="E11" s="559"/>
       <c r="F11" s="561"/>
-      <c r="G11" s="562"/>
-      <c r="H11" s="564"/>
-      <c r="I11" s="564"/>
+      <c r="G11" s="559"/>
+      <c r="H11" s="560"/>
+      <c r="I11" s="560"/>
       <c r="J11" s="561"/>
-      <c r="K11" s="562"/>
-      <c r="L11" s="564"/>
+      <c r="K11" s="559"/>
+      <c r="L11" s="560"/>
       <c r="M11" s="561"/>
-      <c r="N11" s="562"/>
+      <c r="N11" s="559"/>
       <c r="O11" s="561"/>
-      <c r="P11" s="562"/>
+      <c r="P11" s="559"/>
       <c r="Q11" s="561"/>
-      <c r="R11" s="562"/>
+      <c r="R11" s="559"/>
       <c r="S11" s="561"/>
-      <c r="T11" s="562"/>
-      <c r="U11" s="564"/>
-      <c r="V11" s="564"/>
+      <c r="T11" s="559"/>
+      <c r="U11" s="560"/>
+      <c r="V11" s="560"/>
       <c r="W11" s="561"/>
       <c r="X11" s="200"/>
       <c r="Y11" s="200"/>
       <c r="Z11" s="200"/>
-      <c r="AA11" s="562"/>
-      <c r="AB11" s="564"/>
+      <c r="AA11" s="559"/>
+      <c r="AB11" s="560"/>
       <c r="AC11" s="561"/>
       <c r="AD11" s="13"/>
       <c r="AE11" s="5"/>
@@ -42652,32 +42586,32 @@
     </row>
     <row r="13" spans="2:53" ht="25" customHeight="1">
       <c r="B13" s="14"/>
-      <c r="C13" s="562"/>
+      <c r="C13" s="559"/>
       <c r="D13" s="561"/>
-      <c r="E13" s="562"/>
+      <c r="E13" s="559"/>
       <c r="F13" s="561"/>
-      <c r="G13" s="562"/>
-      <c r="H13" s="564"/>
-      <c r="I13" s="564"/>
+      <c r="G13" s="559"/>
+      <c r="H13" s="560"/>
+      <c r="I13" s="560"/>
       <c r="J13" s="561"/>
-      <c r="K13" s="562"/>
-      <c r="L13" s="564"/>
+      <c r="K13" s="559"/>
+      <c r="L13" s="560"/>
       <c r="M13" s="561"/>
-      <c r="N13" s="562"/>
+      <c r="N13" s="559"/>
       <c r="O13" s="561"/>
-      <c r="P13" s="562"/>
+      <c r="P13" s="559"/>
       <c r="Q13" s="561"/>
-      <c r="R13" s="562"/>
+      <c r="R13" s="559"/>
       <c r="S13" s="561"/>
-      <c r="T13" s="562"/>
-      <c r="U13" s="564"/>
-      <c r="V13" s="564"/>
+      <c r="T13" s="559"/>
+      <c r="U13" s="560"/>
+      <c r="V13" s="560"/>
       <c r="W13" s="561"/>
       <c r="X13" s="200"/>
       <c r="Y13" s="200"/>
       <c r="Z13" s="200"/>
-      <c r="AA13" s="562"/>
-      <c r="AB13" s="564"/>
+      <c r="AA13" s="559"/>
+      <c r="AB13" s="560"/>
       <c r="AC13" s="561"/>
       <c r="AD13" s="13"/>
       <c r="AE13" s="5"/>
@@ -42760,32 +42694,32 @@
     </row>
     <row r="15" spans="2:53" ht="25" customHeight="1">
       <c r="B15" s="14"/>
-      <c r="C15" s="562"/>
+      <c r="C15" s="559"/>
       <c r="D15" s="561"/>
-      <c r="E15" s="562"/>
+      <c r="E15" s="559"/>
       <c r="F15" s="561"/>
-      <c r="G15" s="562"/>
-      <c r="H15" s="564"/>
-      <c r="I15" s="564"/>
+      <c r="G15" s="559"/>
+      <c r="H15" s="560"/>
+      <c r="I15" s="560"/>
       <c r="J15" s="561"/>
-      <c r="K15" s="562"/>
-      <c r="L15" s="564"/>
+      <c r="K15" s="559"/>
+      <c r="L15" s="560"/>
       <c r="M15" s="561"/>
-      <c r="N15" s="562"/>
+      <c r="N15" s="559"/>
       <c r="O15" s="561"/>
-      <c r="P15" s="562"/>
+      <c r="P15" s="559"/>
       <c r="Q15" s="561"/>
-      <c r="R15" s="562"/>
+      <c r="R15" s="559"/>
       <c r="S15" s="561"/>
-      <c r="T15" s="562"/>
-      <c r="U15" s="564"/>
-      <c r="V15" s="564"/>
+      <c r="T15" s="559"/>
+      <c r="U15" s="560"/>
+      <c r="V15" s="560"/>
       <c r="W15" s="561"/>
       <c r="X15" s="200"/>
       <c r="Y15" s="200"/>
       <c r="Z15" s="200"/>
-      <c r="AA15" s="562"/>
-      <c r="AB15" s="564"/>
+      <c r="AA15" s="559"/>
+      <c r="AB15" s="560"/>
       <c r="AC15" s="561"/>
       <c r="AD15" s="13"/>
       <c r="AE15" s="4"/>
@@ -42868,32 +42802,32 @@
     </row>
     <row r="17" spans="1:53" ht="25" customHeight="1">
       <c r="B17" s="14"/>
-      <c r="C17" s="562"/>
+      <c r="C17" s="559"/>
       <c r="D17" s="561"/>
-      <c r="E17" s="562"/>
+      <c r="E17" s="559"/>
       <c r="F17" s="561"/>
-      <c r="G17" s="562"/>
-      <c r="H17" s="564"/>
-      <c r="I17" s="564"/>
+      <c r="G17" s="559"/>
+      <c r="H17" s="560"/>
+      <c r="I17" s="560"/>
       <c r="J17" s="561"/>
-      <c r="K17" s="562"/>
-      <c r="L17" s="564"/>
+      <c r="K17" s="559"/>
+      <c r="L17" s="560"/>
       <c r="M17" s="561"/>
-      <c r="N17" s="562"/>
+      <c r="N17" s="559"/>
       <c r="O17" s="561"/>
-      <c r="P17" s="562"/>
+      <c r="P17" s="559"/>
       <c r="Q17" s="561"/>
-      <c r="R17" s="562"/>
+      <c r="R17" s="559"/>
       <c r="S17" s="561"/>
-      <c r="T17" s="562"/>
-      <c r="U17" s="564"/>
-      <c r="V17" s="564"/>
+      <c r="T17" s="559"/>
+      <c r="U17" s="560"/>
+      <c r="V17" s="560"/>
       <c r="W17" s="561"/>
       <c r="X17" s="200"/>
       <c r="Y17" s="200"/>
       <c r="Z17" s="200"/>
-      <c r="AA17" s="562"/>
-      <c r="AB17" s="564"/>
+      <c r="AA17" s="559"/>
+      <c r="AB17" s="560"/>
       <c r="AC17" s="561"/>
       <c r="AD17" s="13"/>
       <c r="AE17" s="3"/>
@@ -42976,32 +42910,32 @@
     </row>
     <row r="19" spans="1:53" ht="25" customHeight="1">
       <c r="B19" s="14"/>
-      <c r="C19" s="562"/>
+      <c r="C19" s="559"/>
       <c r="D19" s="561"/>
-      <c r="E19" s="562"/>
+      <c r="E19" s="559"/>
       <c r="F19" s="561"/>
-      <c r="G19" s="562"/>
-      <c r="H19" s="564"/>
-      <c r="I19" s="564"/>
+      <c r="G19" s="559"/>
+      <c r="H19" s="560"/>
+      <c r="I19" s="560"/>
       <c r="J19" s="561"/>
-      <c r="K19" s="562"/>
-      <c r="L19" s="564"/>
+      <c r="K19" s="559"/>
+      <c r="L19" s="560"/>
       <c r="M19" s="561"/>
-      <c r="N19" s="562"/>
+      <c r="N19" s="559"/>
       <c r="O19" s="561"/>
-      <c r="P19" s="562"/>
+      <c r="P19" s="559"/>
       <c r="Q19" s="561"/>
-      <c r="R19" s="562"/>
+      <c r="R19" s="559"/>
       <c r="S19" s="561"/>
-      <c r="T19" s="562"/>
-      <c r="U19" s="564"/>
-      <c r="V19" s="564"/>
+      <c r="T19" s="559"/>
+      <c r="U19" s="560"/>
+      <c r="V19" s="560"/>
       <c r="W19" s="561"/>
       <c r="X19" s="200"/>
       <c r="Y19" s="200"/>
       <c r="Z19" s="200"/>
-      <c r="AA19" s="562"/>
-      <c r="AB19" s="564"/>
+      <c r="AA19" s="559"/>
+      <c r="AB19" s="560"/>
       <c r="AC19" s="561"/>
       <c r="AD19" s="13"/>
       <c r="AE19" s="2"/>
@@ -43069,32 +43003,32 @@
     </row>
     <row r="21" spans="1:53" ht="25" customHeight="1">
       <c r="B21" s="14"/>
-      <c r="C21" s="562"/>
+      <c r="C21" s="559"/>
       <c r="D21" s="561"/>
-      <c r="E21" s="562"/>
+      <c r="E21" s="559"/>
       <c r="F21" s="561"/>
-      <c r="G21" s="562"/>
-      <c r="H21" s="564"/>
-      <c r="I21" s="564"/>
+      <c r="G21" s="559"/>
+      <c r="H21" s="560"/>
+      <c r="I21" s="560"/>
       <c r="J21" s="561"/>
-      <c r="K21" s="562"/>
-      <c r="L21" s="564"/>
+      <c r="K21" s="559"/>
+      <c r="L21" s="560"/>
       <c r="M21" s="561"/>
-      <c r="N21" s="562"/>
+      <c r="N21" s="559"/>
       <c r="O21" s="561"/>
-      <c r="P21" s="562"/>
+      <c r="P21" s="559"/>
       <c r="Q21" s="561"/>
-      <c r="R21" s="562"/>
+      <c r="R21" s="559"/>
       <c r="S21" s="561"/>
-      <c r="T21" s="562"/>
-      <c r="U21" s="564"/>
-      <c r="V21" s="564"/>
+      <c r="T21" s="559"/>
+      <c r="U21" s="560"/>
+      <c r="V21" s="560"/>
       <c r="W21" s="561"/>
       <c r="X21" s="200"/>
       <c r="Y21" s="200"/>
       <c r="Z21" s="200"/>
-      <c r="AA21" s="562"/>
-      <c r="AB21" s="564"/>
+      <c r="AA21" s="559"/>
+      <c r="AB21" s="560"/>
       <c r="AC21" s="561"/>
       <c r="AD21" s="13"/>
       <c r="AE21" s="2"/>
@@ -43162,7 +43096,7 @@
       <c r="O23" s="571"/>
       <c r="P23" s="570"/>
       <c r="Q23" s="571"/>
-      <c r="R23" s="562"/>
+      <c r="R23" s="559"/>
       <c r="S23" s="561"/>
       <c r="T23" s="570"/>
       <c r="U23" s="572"/>
@@ -43186,33 +43120,33 @@
     <row r="24" spans="1:53" ht="25" customHeight="1">
       <c r="B24" s="14"/>
       <c r="C24" s="185" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="D24" s="183" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="E24" s="183" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F24" s="199"/>
       <c r="G24" s="187" t="s">
         <v>409</v>
       </c>
       <c r="H24" s="183" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="I24" s="183" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="J24" s="183"/>
       <c r="K24" s="183"/>
       <c r="L24" s="502"/>
       <c r="M24" s="502"/>
       <c r="N24" s="502"/>
-      <c r="O24" s="558">
+      <c r="O24" s="565">
         <v>10</v>
       </c>
-      <c r="P24" s="558"/>
+      <c r="P24" s="565"/>
       <c r="Q24" s="183"/>
       <c r="R24" s="183"/>
       <c r="S24" s="183"/>
@@ -43454,10 +43388,6 @@
     <row r="57" spans="5:35" ht="25" customHeight="1"/>
   </sheetData>
   <mergeCells count="183">
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="X9:Z9"/>
     <mergeCell ref="X10:Z10"/>
     <mergeCell ref="AI9:BA19"/>
     <mergeCell ref="AF9:AH19"/>
@@ -43605,8 +43535,6 @@
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="C3:E3"/>
@@ -43629,6 +43557,8 @@
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="X7:Z7"/>
     <mergeCell ref="R5:S5"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="P5:Q5"/>
@@ -43637,6 +43567,10 @@
     <mergeCell ref="AA6:AB6"/>
     <mergeCell ref="T7:W7"/>
     <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="X9:Z9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43720,13 +43654,13 @@
     </row>
     <row r="3" spans="1:53" ht="25" customHeight="1">
       <c r="B3" s="83"/>
-      <c r="C3" s="567" t="s">
+      <c r="C3" s="563" t="s">
         <v>412</v>
       </c>
-      <c r="D3" s="567"/>
-      <c r="E3" s="567"/>
-      <c r="F3" s="567"/>
-      <c r="G3" s="567"/>
+      <c r="D3" s="563"/>
+      <c r="E3" s="563"/>
+      <c r="F3" s="563"/>
+      <c r="G3" s="563"/>
       <c r="H3" s="94"/>
       <c r="I3" s="94"/>
       <c r="J3" s="94"/>
@@ -43736,13 +43670,13 @@
       <c r="N3" s="94"/>
       <c r="O3" s="94"/>
       <c r="P3" s="94"/>
-      <c r="Q3" s="567" t="s">
+      <c r="Q3" s="563" t="s">
         <v>427</v>
       </c>
-      <c r="R3" s="567"/>
-      <c r="S3" s="567"/>
-      <c r="T3" s="567"/>
-      <c r="U3" s="567"/>
+      <c r="R3" s="563"/>
+      <c r="S3" s="563"/>
+      <c r="T3" s="563"/>
+      <c r="U3" s="563"/>
       <c r="V3" s="94"/>
       <c r="W3" s="94"/>
       <c r="X3" s="94"/>
@@ -43817,7 +43751,7 @@
       <c r="AG4" s="356"/>
       <c r="AH4" s="357"/>
       <c r="AI4" s="364" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="AJ4" s="365"/>
       <c r="AK4" s="365"/>
@@ -44625,7 +44559,9 @@
   </sheetPr>
   <dimension ref="B2:K224"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
@@ -44817,7 +44753,7 @@
         <v>335</v>
       </c>
       <c r="C17" s="66" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="D17" s="223" t="s">
         <v>340</v>
@@ -44841,7 +44777,7 @@
         <v>352</v>
       </c>
       <c r="D18" s="326" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="E18" s="327"/>
       <c r="F18" s="327"/>
@@ -46187,7 +46123,7 @@
     <row r="140" spans="2:11" ht="19">
       <c r="B140" s="95"/>
       <c r="C140" s="195" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="D140" s="109" t="s">
         <v>469</v>
@@ -46288,13 +46224,13 @@
     </row>
     <row r="149" spans="2:11">
       <c r="B149" s="196" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="C149" s="197" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="D149" s="192" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="E149" s="193"/>
       <c r="F149" s="193"/>
@@ -46312,7 +46248,7 @@
         <v>472</v>
       </c>
       <c r="D150" s="220" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="E150" s="221"/>
       <c r="F150" s="221"/>
@@ -46330,7 +46266,7 @@
         <v>474</v>
       </c>
       <c r="D151" s="220" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="E151" s="221"/>
       <c r="F151" s="221"/>
@@ -46426,7 +46362,7 @@
         <v>352</v>
       </c>
       <c r="D157" s="326" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="E157" s="327"/>
       <c r="F157" s="327"/>
@@ -47462,7 +47398,7 @@
         <v>478</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>491</v>
@@ -47498,7 +47434,7 @@
         <v>480</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F3" s="27" t="str">
         <f>_xlfn.CONCAT(settingpage!AI3,C3)</f>
@@ -47554,7 +47490,7 @@
         <v>485</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F5" s="461"/>
       <c r="G5" s="20"/>
@@ -47575,7 +47511,7 @@
         <v>498</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>500</v>
@@ -47603,13 +47539,13 @@
         <v>490</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="F7" s="28" t="str">
         <f>_xlfn.CONCAT(settingpage!AI3,C7)</f>
@@ -47663,7 +47599,7 @@
         <v>469</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D9" s="40" t="s">
         <v>501</v>
@@ -47691,7 +47627,7 @@
         <v>470</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="D10" s="40" t="s">
         <v>515</v>
@@ -47719,7 +47655,7 @@
         <v>471</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="D11" s="40" t="s">
         <v>516</v>
@@ -47747,7 +47683,7 @@
         <v>495</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>517</v>
@@ -47805,7 +47741,7 @@
         <v>509</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="D14" s="40" t="s">
         <v>520</v>
@@ -47833,13 +47769,13 @@
         <v>439</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="D15" s="40" t="s">
         <v>521</v>
       </c>
       <c r="E15" s="202" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="F15" s="27" t="str">
         <f>_xlfn.CONCAT(settingpage!AI3,C15)</f>
@@ -47863,7 +47799,7 @@
         <v>522</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="D16" s="40" t="s">
         <v>523</v>
@@ -48038,7 +47974,7 @@
         <v>47</v>
       </c>
       <c r="C17" s="223" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D17" s="223"/>
       <c r="E17" s="223"/>
@@ -48051,7 +47987,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="220" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="D18" s="221"/>
       <c r="E18" s="221"/>
@@ -48083,7 +48019,7 @@
         <v>395</v>
       </c>
       <c r="C21" s="338" t="s">
-        <v>569</v>
+        <v>930</v>
       </c>
       <c r="D21" s="338"/>
       <c r="E21" s="338"/>
@@ -48096,7 +48032,7 @@
         <v>396</v>
       </c>
       <c r="C22" s="220" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D22" s="221"/>
       <c r="E22" s="221"/>
@@ -48106,7 +48042,7 @@
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="69" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C24" s="163"/>
       <c r="D24" s="163"/>
@@ -48120,7 +48056,7 @@
         <v>395</v>
       </c>
       <c r="C25" s="338" t="s">
-        <v>637</v>
+        <v>928</v>
       </c>
       <c r="D25" s="338"/>
       <c r="E25" s="338"/>
@@ -48133,7 +48069,7 @@
         <v>396</v>
       </c>
       <c r="C26" s="220" t="s">
-        <v>636</v>
+        <v>929</v>
       </c>
       <c r="D26" s="221"/>
       <c r="E26" s="221"/>
@@ -48143,7 +48079,7 @@
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="69" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C28" s="163"/>
       <c r="D28" s="163"/>
@@ -48157,7 +48093,7 @@
         <v>395</v>
       </c>
       <c r="C29" s="338" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D29" s="338"/>
       <c r="E29" s="338"/>
@@ -48170,7 +48106,7 @@
         <v>396</v>
       </c>
       <c r="C30" s="220" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D30" s="221"/>
       <c r="E30" s="221"/>
@@ -48180,7 +48116,7 @@
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="69" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C32" s="163"/>
       <c r="D32" s="163"/>
@@ -48194,7 +48130,7 @@
         <v>395</v>
       </c>
       <c r="C33" s="338" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D33" s="338"/>
       <c r="E33" s="338"/>
@@ -48207,7 +48143,7 @@
         <v>396</v>
       </c>
       <c r="C34" s="220" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D34" s="221"/>
       <c r="E34" s="221"/>
@@ -48217,7 +48153,7 @@
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="69" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="C36" s="163"/>
       <c r="D36" s="163"/>
@@ -48231,7 +48167,7 @@
         <v>395</v>
       </c>
       <c r="C37" s="338" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="D37" s="338"/>
       <c r="E37" s="338"/>
@@ -48244,7 +48180,7 @@
         <v>396</v>
       </c>
       <c r="C38" s="220" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="D38" s="221"/>
       <c r="E38" s="221"/>
@@ -48254,7 +48190,7 @@
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="69" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="C40" s="163"/>
       <c r="D40" s="163"/>
@@ -48268,7 +48204,7 @@
         <v>395</v>
       </c>
       <c r="C41" s="338" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="D41" s="338"/>
       <c r="E41" s="338"/>
@@ -48281,7 +48217,7 @@
         <v>396</v>
       </c>
       <c r="C42" s="220" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="D42" s="221"/>
       <c r="E42" s="221"/>
@@ -48343,7 +48279,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="64" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="E2" s="64" t="s">
         <v>391</v>
@@ -48354,10 +48290,10 @@
         <v>289</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E3" s="65" t="s">
         <v>262</v>
@@ -48369,7 +48305,7 @@
         <v>431</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E4" s="66">
         <v>7</v>
@@ -48380,13 +48316,13 @@
         <v>289</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E5" s="66" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="18" customHeight="1">
@@ -48395,7 +48331,7 @@
         <v>431</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E6" s="66">
         <v>3</v>
@@ -48406,10 +48342,10 @@
         <v>289</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D7" s="66" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E7" s="65" t="s">
         <v>263</v>
@@ -48421,7 +48357,7 @@
         <v>431</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E8" s="66">
         <v>1</v>
@@ -48461,7 +48397,7 @@
         <v>469</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E12" s="66" t="s">
         <v>10</v>
@@ -48476,7 +48412,7 @@
         <v>474</v>
       </c>
       <c r="E13" s="66" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
@@ -48485,7 +48421,7 @@
         <v>495</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E14" s="66">
         <v>101</v>
@@ -48497,7 +48433,7 @@
         <v>470</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="E15" s="162"/>
     </row>
@@ -48507,7 +48443,7 @@
         <v>471</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="E16" s="158" t="s">
         <v>3</v>
@@ -48519,7 +48455,7 @@
         <v>405</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="E17" s="162"/>
     </row>
@@ -48531,10 +48467,10 @@
         <v>469</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E18" s="66" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="18" customHeight="1">
@@ -48546,7 +48482,7 @@
         <v>474</v>
       </c>
       <c r="E19" s="66" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="18" customHeight="1">
@@ -48555,7 +48491,7 @@
         <v>495</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E20" s="66">
         <v>102</v>
@@ -48567,7 +48503,7 @@
         <v>470</v>
       </c>
       <c r="D21" s="65" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="E21" s="162"/>
     </row>
@@ -48577,7 +48513,7 @@
         <v>471</v>
       </c>
       <c r="D22" s="65" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="E22" s="168"/>
     </row>
@@ -48587,7 +48523,7 @@
         <v>405</v>
       </c>
       <c r="D23" s="65" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="E23" s="162"/>
     </row>
@@ -48599,7 +48535,7 @@
         <v>469</v>
       </c>
       <c r="D24" s="65" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E24" s="66" t="s">
         <v>428</v>
@@ -48614,7 +48550,7 @@
         <v>474</v>
       </c>
       <c r="E25" s="66" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -48623,7 +48559,7 @@
         <v>495</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E26" s="66">
         <v>301</v>
@@ -48635,7 +48571,7 @@
         <v>470</v>
       </c>
       <c r="D27" s="65" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="E27" s="162"/>
     </row>
@@ -48645,10 +48581,10 @@
         <v>471</v>
       </c>
       <c r="D28" s="65" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="E28" s="158" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="29" spans="2:5">
@@ -48657,7 +48593,7 @@
         <v>405</v>
       </c>
       <c r="D29" s="65" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="E29" s="162"/>
     </row>
@@ -48683,7 +48619,7 @@
         <v>469</v>
       </c>
       <c r="D31" s="65" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E31" s="66" t="s">
         <v>429</v>
@@ -48698,7 +48634,7 @@
         <v>474</v>
       </c>
       <c r="E32" s="66" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -48707,7 +48643,7 @@
         <v>495</v>
       </c>
       <c r="D33" s="65" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E33" s="66">
         <v>302</v>
@@ -48719,7 +48655,7 @@
         <v>470</v>
       </c>
       <c r="D34" s="65" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="E34" s="162"/>
     </row>
@@ -48729,7 +48665,7 @@
         <v>471</v>
       </c>
       <c r="D35" s="65" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="E35" s="158"/>
     </row>
@@ -48739,7 +48675,7 @@
         <v>405</v>
       </c>
       <c r="D36" s="65" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="E36" s="162"/>
     </row>
@@ -48765,10 +48701,10 @@
         <v>469</v>
       </c>
       <c r="D38" s="65" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E38" s="66" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -48780,7 +48716,7 @@
         <v>474</v>
       </c>
       <c r="E39" s="66" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="40" spans="2:5">
@@ -48789,7 +48725,7 @@
         <v>495</v>
       </c>
       <c r="D40" s="65" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E40" s="66">
         <v>303</v>
@@ -48801,7 +48737,7 @@
         <v>470</v>
       </c>
       <c r="D41" s="65" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="E41" s="162"/>
     </row>
@@ -48811,7 +48747,7 @@
         <v>471</v>
       </c>
       <c r="D42" s="65" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="E42" s="158"/>
     </row>
@@ -48821,7 +48757,7 @@
         <v>405</v>
       </c>
       <c r="D43" s="65" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="E43" s="162"/>
     </row>
@@ -48831,7 +48767,7 @@
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="345" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="C45" s="345"/>
       <c r="D45" s="345"/>
@@ -48859,10 +48795,10 @@
         <v>47</v>
       </c>
       <c r="D47" s="66" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E47" s="66" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="48" spans="2:5">
@@ -48871,7 +48807,7 @@
         <v>19</v>
       </c>
       <c r="D48" s="66" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E48" s="66" t="s">
         <v>530</v>
@@ -48880,13 +48816,13 @@
     <row r="49" spans="2:5">
       <c r="B49" s="314"/>
       <c r="C49" s="66" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D49" s="66" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="E49" s="190" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="50" spans="2:5">
@@ -48897,10 +48833,10 @@
         <v>47</v>
       </c>
       <c r="D50" s="66" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E50" s="66" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="51" spans="2:5">
@@ -48909,22 +48845,22 @@
         <v>19</v>
       </c>
       <c r="D51" s="66" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E51" s="160" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="314"/>
       <c r="C52" s="66" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D52" s="66" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="E52" s="190" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="53" spans="2:5">
@@ -48935,10 +48871,10 @@
         <v>47</v>
       </c>
       <c r="D53" s="66" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E53" s="66" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="38">
@@ -48947,36 +48883,36 @@
         <v>19</v>
       </c>
       <c r="D54" s="66" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E54" s="161" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" s="314"/>
       <c r="C55" s="66" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D55" s="66" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="E55" s="190" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" s="342" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="C56" s="66" t="s">
         <v>47</v>
       </c>
       <c r="D56" s="66" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E56" s="66" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="38">
@@ -48985,36 +48921,36 @@
         <v>19</v>
       </c>
       <c r="D57" s="66" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E57" s="161" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="344"/>
       <c r="C58" s="66" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D58" s="66" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="E58" s="190" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="342" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="C59" s="66" t="s">
         <v>47</v>
       </c>
       <c r="D59" s="66" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E59" s="66" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="38">
@@ -49023,33 +48959,33 @@
         <v>19</v>
       </c>
       <c r="D60" s="66" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E60" s="161" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="61" spans="2:5">
       <c r="B61" s="344"/>
       <c r="C61" s="66" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D61" s="66" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="E61" s="190" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="62" spans="2:5">
       <c r="B62" s="342" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="C62" s="66" t="s">
         <v>47</v>
       </c>
       <c r="D62" s="66" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E62" s="66" t="s">
         <v>361</v>
@@ -49061,36 +48997,36 @@
         <v>19</v>
       </c>
       <c r="D63" s="66" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E63" s="161" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="64" spans="2:5">
       <c r="B64" s="344"/>
       <c r="C64" s="66" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D64" s="66" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="E64" s="190" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="65" spans="2:5">
       <c r="B65" s="342" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="C65" s="66" t="s">
         <v>47</v>
       </c>
       <c r="D65" s="66" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E65" s="66" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="19">
@@ -49099,22 +49035,22 @@
         <v>19</v>
       </c>
       <c r="D66" s="66" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E66" s="161" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="67" spans="2:5">
       <c r="B67" s="346"/>
       <c r="C67" s="66" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D67" s="66" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="E67" s="190" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="68" spans="2:5">
@@ -49123,7 +49059,7 @@
     </row>
     <row r="69" spans="2:5">
       <c r="B69" s="345" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="C69" s="345"/>
       <c r="D69" s="345"/>
@@ -49151,10 +49087,10 @@
         <v>47</v>
       </c>
       <c r="D71" s="66" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E71" s="66" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="72" spans="2:5">
@@ -49163,22 +49099,22 @@
         <v>19</v>
       </c>
       <c r="D72" s="66" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E72" s="160" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="249"/>
       <c r="C73" s="66" t="s">
+        <v>623</v>
+      </c>
+      <c r="D73" s="66" t="s">
+        <v>854</v>
+      </c>
+      <c r="E73" s="66" t="s">
         <v>626</v>
-      </c>
-      <c r="D73" s="66" t="s">
-        <v>860</v>
-      </c>
-      <c r="E73" s="66" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="74" spans="2:5">
@@ -49189,10 +49125,10 @@
         <v>47</v>
       </c>
       <c r="D74" s="66" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E74" s="66" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="75" spans="2:5">
@@ -49201,19 +49137,19 @@
         <v>19</v>
       </c>
       <c r="D75" s="66" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E75" s="66" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="76" spans="2:5">
       <c r="B76" s="249"/>
       <c r="C76" s="66" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D76" s="66" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="E76" s="162"/>
     </row>
@@ -49225,10 +49161,10 @@
         <v>47</v>
       </c>
       <c r="D77" s="66" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E77" s="66" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="78" spans="2:5">
@@ -49237,22 +49173,22 @@
         <v>19</v>
       </c>
       <c r="D78" s="66" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E78" s="160" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
     </row>
     <row r="79" spans="2:5">
       <c r="B79" s="249"/>
       <c r="C79" s="66" t="s">
+        <v>623</v>
+      </c>
+      <c r="D79" s="66" t="s">
+        <v>854</v>
+      </c>
+      <c r="E79" s="66" t="s">
         <v>626</v>
-      </c>
-      <c r="D79" s="66" t="s">
-        <v>860</v>
-      </c>
-      <c r="E79" s="66" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="80" spans="2:5">
@@ -49263,10 +49199,10 @@
         <v>47</v>
       </c>
       <c r="D80" s="66" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E80" s="66" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
     </row>
     <row r="81" spans="2:5">
@@ -49275,19 +49211,19 @@
         <v>19</v>
       </c>
       <c r="D81" s="66" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E81" s="160" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="249"/>
       <c r="C82" s="66" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D82" s="66" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="E82" s="162"/>
     </row>
@@ -49299,7 +49235,7 @@
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="345" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="C84" s="345"/>
       <c r="D84" s="345"/>
@@ -49327,10 +49263,10 @@
         <v>47</v>
       </c>
       <c r="D86" s="66" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E86" s="66" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="87" spans="2:5">
@@ -49339,22 +49275,22 @@
         <v>19</v>
       </c>
       <c r="D87" s="66" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E87" s="160" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="88" spans="2:5">
       <c r="B88" s="249"/>
       <c r="C88" s="66" t="s">
+        <v>623</v>
+      </c>
+      <c r="D88" s="66" t="s">
+        <v>854</v>
+      </c>
+      <c r="E88" s="66" t="s">
         <v>626</v>
-      </c>
-      <c r="D88" s="66" t="s">
-        <v>860</v>
-      </c>
-      <c r="E88" s="66" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="89" spans="2:5">
@@ -49365,10 +49301,10 @@
         <v>47</v>
       </c>
       <c r="D89" s="66" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E89" s="66" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="90" spans="2:5">
@@ -49377,19 +49313,19 @@
         <v>19</v>
       </c>
       <c r="D90" s="66" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E90" s="160" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="91" spans="2:5">
       <c r="B91" s="249"/>
       <c r="C91" s="66" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D91" s="66" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="E91" s="162"/>
     </row>
@@ -49437,7 +49373,7 @@
     </row>
     <row r="101" spans="2:5">
       <c r="B101" s="153" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E101" s="1"/>
     </row>
@@ -49449,7 +49385,7 @@
         <v>4</v>
       </c>
       <c r="D102" s="64" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="E102" s="64" t="s">
         <v>391</v>
@@ -49457,13 +49393,13 @@
     </row>
     <row r="103" spans="2:5">
       <c r="B103" s="203" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="C103" s="78" t="s">
         <v>394</v>
       </c>
       <c r="D103" s="78" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="E103" s="159">
         <v>10</v>
@@ -49471,13 +49407,13 @@
     </row>
     <row r="104" spans="2:5">
       <c r="B104" s="203" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="C104" s="78" t="s">
         <v>392</v>
       </c>
       <c r="D104" s="78" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="E104" s="159">
         <v>10</v>
@@ -49485,13 +49421,13 @@
     </row>
     <row r="105" spans="2:5">
       <c r="B105" s="203" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="C105" s="78" t="s">
         <v>393</v>
       </c>
       <c r="D105" s="78" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="E105" s="159">
         <v>5</v>
@@ -49499,13 +49435,13 @@
     </row>
     <row r="106" spans="2:5">
       <c r="B106" s="203" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="C106" s="78" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="D106" s="78" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="E106" s="159">
         <v>10</v>
@@ -49554,7 +49490,7 @@
       </c>
       <c r="D111" s="165"/>
       <c r="E111" s="166" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="112" spans="2:5">
@@ -49580,7 +49516,7 @@
       </c>
       <c r="D114" s="165"/>
       <c r="E114" s="166" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -49636,10 +49572,10 @@
   <sheetData>
     <row r="2" spans="2:3" ht="18" customHeight="1">
       <c r="B2" s="64" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C2" s="64" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="18" customHeight="1">
@@ -49647,19 +49583,19 @@
         <v>20</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="18" customHeight="1">
       <c r="B4" s="249"/>
       <c r="C4" s="66" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="18" customHeight="1">
       <c r="B5" s="249"/>
       <c r="C5" s="66" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="18" customHeight="1">
@@ -49667,13 +49603,13 @@
         <v>22</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="18" customHeight="1">
       <c r="B7" s="249"/>
       <c r="C7" s="66" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="18" customHeight="1">
@@ -49681,21 +49617,21 @@
         <v>21</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="18" customHeight="1">
       <c r="B9" s="249"/>
       <c r="C9" s="66" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="18" customHeight="1">
       <c r="B10" s="64" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C10" s="188" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="18" customHeight="1"/>
@@ -49717,9 +49653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEAAEC5C-F8C3-4148-A22B-12BC99178B51}">
   <dimension ref="A1:BA57"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AN27" sqref="AN27"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
@@ -50758,9 +50692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33688347-C135-214E-B19D-F6F77887476E}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
@@ -50873,10 +50805,10 @@
         <v>305</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="G4" s="27" t="str">
         <f>_xlfn.CONCAT(G2, D4)</f>
@@ -50902,7 +50834,7 @@
         <v>306</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>320</v>
@@ -50954,16 +50886,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="E7" s="40" t="s">
         <v>318</v>
       </c>
       <c r="F7" s="405" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="G7" s="400" t="str">
         <f>_xlfn.CONCAT(G2, D7)</f>
@@ -51104,10 +51036,10 @@
         <v>538</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="G13" s="27" t="str">
         <f>_xlfn.CONCAT(common!AI3, D13)</f>
@@ -51130,7 +51062,7 @@
         <v>539</v>
       </c>
       <c r="D14" s="121" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="E14" s="40" t="s">
         <v>541</v>
@@ -51150,10 +51082,10 @@
         <v>542</v>
       </c>
       <c r="D15" s="121" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E15" s="121" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F15" s="121" t="s">
         <v>544</v>
@@ -51172,10 +51104,10 @@
         <v>543</v>
       </c>
       <c r="D16" s="121" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E16" s="122" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F16" s="122" t="s">
         <v>544</v>
@@ -51194,10 +51126,10 @@
         <v>545</v>
       </c>
       <c r="D17" s="121" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="E17" s="121" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="F17" s="121"/>
       <c r="G17" s="121" t="str">
@@ -51246,9 +51178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A58D6B-4E36-D247-973C-3157C0E1A009}">
   <dimension ref="A1:BA66"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AI15" sqref="AI15"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
@@ -51337,7 +51267,7 @@
       <c r="P3" s="435"/>
       <c r="Q3" s="131"/>
       <c r="R3" s="435" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="S3" s="435"/>
       <c r="T3" s="435"/>
@@ -51414,7 +51344,7 @@
       <c r="AG4" s="356"/>
       <c r="AH4" s="357"/>
       <c r="AI4" s="364" t="s">
-        <v>676</v>
+        <v>931</v>
       </c>
       <c r="AJ4" s="365"/>
       <c r="AK4" s="365"/>
@@ -52398,7 +52328,7 @@
       <c r="I34" s="418"/>
       <c r="J34" s="418"/>
       <c r="L34" s="419" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M34" s="413"/>
       <c r="N34" s="414"/>
@@ -52432,7 +52362,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="418" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="U35" s="418"/>
       <c r="V35" s="418"/>
@@ -52453,7 +52383,7 @@
     <row r="36" spans="2:35" ht="25" customHeight="1">
       <c r="B36" s="131"/>
       <c r="C36" s="415" t="s">
-        <v>577</v>
+        <v>925</v>
       </c>
       <c r="D36" s="416"/>
       <c r="E36" s="416"/>
@@ -52607,7 +52537,7 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="X41" s="412" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Y41" s="413"/>
       <c r="Z41" s="414"/>
@@ -52828,7 +52758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4A8039-28B7-D344-B703-605C003CBB29}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
@@ -52881,10 +52811,10 @@
         <v>557</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F2" s="27"/>
       <c r="G2" s="27" t="str">
@@ -52910,7 +52840,7 @@
         <v>558</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>559</v>
@@ -52936,10 +52866,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>560</v>
@@ -52965,13 +52895,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="28" t="str">
@@ -52994,10 +52924,10 @@
       </c>
       <c r="B6" s="55"/>
       <c r="C6" s="27" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>561</v>
@@ -53019,7 +52949,7 @@
         <v>563</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>567</v>
@@ -53044,10 +52974,10 @@
         <v>333</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="F8" s="108" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G8" s="50" t="str">
         <f>_xlfn.CONCAT(G6,D8)</f>
@@ -53066,10 +52996,10 @@
         <v>334</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="F9" s="108" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G9" s="50" t="str">
         <f>_xlfn.CONCAT(G6,D9)</f>
@@ -53085,13 +53015,13 @@
         <v>564</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="E10" s="27" t="s">
+        <v>580</v>
+      </c>
+      <c r="F10" s="108" t="s">
         <v>582</v>
-      </c>
-      <c r="F10" s="108" t="s">
-        <v>584</v>
       </c>
       <c r="G10" s="50" t="str">
         <f>_xlfn.CONCAT(G6,D10)</f>
@@ -53110,10 +53040,10 @@
         <v>556</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="F11" s="108" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G11" s="50" t="str">
         <f>_xlfn.CONCAT(G6,D11)</f>
@@ -53126,16 +53056,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="F12" s="108" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G12" s="50" t="str">
         <f>_xlfn.CONCAT(G6,D12)</f>
@@ -53151,13 +53081,13 @@
         <v>565</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="F13" s="108" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="G13" s="50" t="str">
         <f>_xlfn.CONCAT(G6,D13)</f>
@@ -53173,10 +53103,10 @@
         <v>566</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F14" s="108"/>
       <c r="G14" s="50" t="str">
@@ -53196,10 +53126,10 @@
         <v>339</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="F15" s="108" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="G15" s="50" t="str">
         <f>_xlfn.CONCAT(G6,D15)</f>
@@ -53212,13 +53142,13 @@
       </c>
       <c r="B16" s="154"/>
       <c r="C16" s="28" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F16" s="28" t="s">
         <v>562</v>
@@ -53237,35 +53167,35 @@
         <v>23</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="F17" s="108" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G17" s="28" t="str">
         <f>_xlfn.CONCAT(G16,D17)</f>
         <v>signuppageforgotpasswordareaemail</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="138">
+    <row r="18" spans="1:7" ht="115">
       <c r="A18" s="442"/>
       <c r="B18" s="26">
         <v>2</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>901</v>
+        <v>927</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>590</v>
+        <v>926</v>
       </c>
       <c r="G18" s="28" t="str">
         <f>_xlfn.CONCAT(G16,D18)</f>
@@ -53278,16 +53208,16 @@
       </c>
       <c r="B19" s="157"/>
       <c r="C19" s="28" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G19" s="28" t="str">
         <f>_xlfn.CONCAT(signuppage!AI3, D19)</f>
@@ -53306,10 +53236,10 @@
         <v>333</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="F20" s="108" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G20" s="28" t="str">
         <f>_xlfn.CONCAT(G19,D20)</f>
@@ -53322,13 +53252,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="28" t="str">
@@ -53348,10 +53278,10 @@
         <v>334</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="F22" s="108" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G22" s="28" t="str">
         <f>_xlfn.CONCAT(G19,D22)</f>
@@ -53367,13 +53297,13 @@
         <v>564</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="E23" s="27" t="s">
+        <v>580</v>
+      </c>
+      <c r="F23" s="108" t="s">
         <v>582</v>
-      </c>
-      <c r="F23" s="108" t="s">
-        <v>584</v>
       </c>
       <c r="G23" s="28" t="str">
         <f>_xlfn.CONCAT(G19,D23)</f>
@@ -53386,16 +53316,16 @@
         <v>5</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F24" s="108" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G24" s="28" t="str">
         <f>_xlfn.CONCAT(G19,D24)</f>
